--- a/data/azmet-data-metadata.xlsx
+++ b/data/azmet-data-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/jlweiss_arizona_edu/Documents/Documents/azmet/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1061" documentId="8_{18E7E82B-C50D-D541-8F7C-E7793C65CF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA953C5B-65B4-D945-8720-CEDBFD781E70}"/>
+  <xr:revisionPtr revIDLastSave="1099" documentId="8_{18E7E82B-C50D-D541-8F7C-E7793C65CF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F13F7C2A-B366-8D41-A05A-A27F5188B743}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="500" windowWidth="34300" windowHeight="23540" xr2:uid="{16563681-6CE0-894B-B323-770583AF5C92}"/>
+    <workbookView xWindow="880" yWindow="540" windowWidth="29680" windowHeight="23760" activeTab="1" xr2:uid="{16563681-6CE0-894B-B323-770583AF5C92}"/>
   </bookViews>
   <sheets>
     <sheet name="hourly" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="252">
   <si>
     <t>variable</t>
   </si>
@@ -207,9 +207,6 @@
     <t>temp_soil_50cmF</t>
   </si>
   <si>
-    <t>dependencies</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -672,18 +669,6 @@
     <t>Solar radiation, hourly total in langleys</t>
   </si>
   <si>
-    <t>Soil temperature, hourly average in degrees Celsius at a depth of 10 centimeters</t>
-  </si>
-  <si>
-    <t>Soil temperature, hourly average in degrees Fahrenheit at a depth of 10 centimeters</t>
-  </si>
-  <si>
-    <t>Soil temperature, hourly average in degrees Celsius at a depth of 50 centimeters</t>
-  </si>
-  <si>
-    <t>Soil temperature, hourly average in degrees Fahrenheit at a depth of 50 centimeters</t>
-  </si>
-  <si>
     <t>variableDependencies</t>
   </si>
   <si>
@@ -784,6 +769,30 @@
   </si>
   <si>
     <t>Humidity, hourly average percentage</t>
+  </si>
+  <si>
+    <t>temp_airC, relative_humidity</t>
+  </si>
+  <si>
+    <t>Soil temperature, hourly sample in degrees Celsius at a depth of 10 centimeters</t>
+  </si>
+  <si>
+    <t>Soil temperature, hourly sample in degrees Celsius at a depth of 50 centimeters</t>
+  </si>
+  <si>
+    <t>calculation done at station by datalogger program</t>
+  </si>
+  <si>
+    <t>Soil temperature, hourly sample in degrees Fahrenheit at a depth of 10 centimeters</t>
+  </si>
+  <si>
+    <t>Soil temperature, hourly sample in degrees Fahrenheit at a depth of 50 centimeters</t>
+  </si>
+  <si>
+    <t>air_tempC, relative humidity</t>
+  </si>
+  <si>
+    <t>calculation done at station by datalogger program; also is dependent on 'Saturation vapor pressure calculation 'SVPWkPa' ' done at station by datalogger program</t>
   </si>
 </sst>
 </file>
@@ -895,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -944,50 +953,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1230,10 +1202,49 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1557,24 +1568,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDA1B29D-DF87-7B40-A1DE-7BD27B182E3F}" name="Table1" displayName="Table1" ref="A1:L70" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDA1B29D-DF87-7B40-A1DE-7BD27B182E3F}" name="Table1" displayName="Table1" ref="A1:L70" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
   <autoFilter ref="A1:L70" xr:uid="{FDA1B29D-DF87-7B40-A1DE-7BD27B182E3F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L70">
-    <sortCondition ref="A1:A70"/>
+    <sortCondition ref="D1:D70"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{91F81FA3-049F-364A-A987-85C5AA5761A9}" name="variable" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{4A445075-FFE4-E348-8329-2C3C63DD1E08}" name="units" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{E6E7C4A1-A792-704A-A40D-BEF025EFABD4}" name="description" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{F542810D-4345-644C-9190-B546738CE5A6}" name="type" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{06A2F3BB-52E1-D844-84FA-A19DBF23AC80}" name="decimalPlaces" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{1E71DFE1-5647-0947-B6E2-7FAA1F530C69}" name="noDataValue" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{659E0740-424D-194D-9588-2EB69743581C}" name="minimumValue" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{41DB1606-4852-F84F-B9F9-F03322DA9A18}" name="maximumValue" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{FBD8D357-0C1D-AC42-98E7-C5BD8D291B95}" name="webReview" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{ECA1E765-47F8-314E-9742-9E3ED1A48875}" name="dependencies" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{0CF4FA03-3C95-D247-9443-27D35419118F}" name="codeReference" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{239364CD-A341-9C44-894B-55A55F2E29DF}" name="notes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{91F81FA3-049F-364A-A987-85C5AA5761A9}" name="variable" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{4A445075-FFE4-E348-8329-2C3C63DD1E08}" name="units" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{E6E7C4A1-A792-704A-A40D-BEF025EFABD4}" name="description" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F542810D-4345-644C-9190-B546738CE5A6}" name="type" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{06A2F3BB-52E1-D844-84FA-A19DBF23AC80}" name="decimalPlaces" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{1E71DFE1-5647-0947-B6E2-7FAA1F530C69}" name="noDataValue" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{659E0740-424D-194D-9588-2EB69743581C}" name="minimumValue" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{41DB1606-4852-F84F-B9F9-F03322DA9A18}" name="maximumValue" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{FBD8D357-0C1D-AC42-98E7-C5BD8D291B95}" name="webReview" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{ECA1E765-47F8-314E-9742-9E3ED1A48875}" name="variableDependencies" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{0CF4FA03-3C95-D247-9443-27D35419118F}" name="codeReference" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{239364CD-A341-9C44-894B-55A55F2E29DF}" name="notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1879,9 +1890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3FBFF2-1E99-1B46-84AE-196AD8BF3655}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1908,10 +1919,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>33</v>
@@ -1929,13 +1940,13 @@
         <v>1</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1970,7 +1981,7 @@
         <v>32</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>32</v>
@@ -2008,7 +2019,7 @@
         <v>32</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>32</v>
@@ -2046,7 +2057,7 @@
         <v>32</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>32</v>
@@ -2084,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>32</v>
@@ -2098,10 +2109,10 @@
         <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
@@ -2119,10 +2130,10 @@
         <v>32</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>32</v>
@@ -2136,10 +2147,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
@@ -2160,7 +2171,7 @@
         <v>37</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>32</v>
@@ -2171,13 +2182,13 @@
         <v>46</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
@@ -2195,13 +2206,13 @@
         <v>32</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2209,13 +2220,13 @@
         <v>47</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="12">
         <v>2</v>
@@ -2236,7 +2247,7 @@
         <v>46</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>32</v>
@@ -2250,10 +2261,10 @@
         <v>38</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
@@ -2271,10 +2282,10 @@
         <v>32</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>32</v>
@@ -2288,10 +2299,10 @@
         <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="12">
         <v>1</v>
@@ -2312,7 +2323,7 @@
         <v>41</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>32</v>
@@ -2323,10 +2334,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>32</v>
@@ -2350,7 +2361,7 @@
         <v>32</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>32</v>
@@ -2388,7 +2399,7 @@
         <v>32</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>32</v>
@@ -2426,7 +2437,7 @@
         <v>32</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>32</v>
@@ -2440,7 +2451,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>32</v>
@@ -2464,7 +2475,7 @@
         <v>32</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>32</v>
@@ -2502,7 +2513,7 @@
         <v>32</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>32</v>
@@ -2513,13 +2524,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
@@ -2540,7 +2551,7 @@
         <v>32</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>32</v>
@@ -2551,13 +2562,13 @@
         <v>45</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="16">
         <v>2</v>
@@ -2575,10 +2586,10 @@
         <v>32</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>32</v>
@@ -2592,10 +2603,10 @@
         <v>49</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="16">
         <v>0</v>
@@ -2616,7 +2627,7 @@
         <v>32</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>32</v>
@@ -2627,13 +2638,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="16">
         <v>2</v>
@@ -2654,7 +2665,7 @@
         <v>32</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>32</v>
@@ -2665,13 +2676,13 @@
         <v>48</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="16">
         <v>2</v>
@@ -2689,10 +2700,10 @@
         <v>32</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>32</v>
@@ -2706,10 +2717,10 @@
         <v>38</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="16">
         <v>1</v>
@@ -2730,7 +2741,7 @@
         <v>32</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>32</v>
@@ -2744,10 +2755,10 @@
         <v>40</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="16">
         <v>1</v>
@@ -2765,10 +2776,10 @@
         <v>32</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>32</v>
@@ -2782,10 +2793,10 @@
         <v>38</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="16">
         <v>1</v>
@@ -2806,7 +2817,7 @@
         <v>32</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>32</v>
@@ -2820,10 +2831,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="16">
         <v>1</v>
@@ -2841,10 +2852,10 @@
         <v>32</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>32</v>
@@ -2858,10 +2869,10 @@
         <v>38</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="16">
         <v>1</v>
@@ -2882,7 +2893,7 @@
         <v>32</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>32</v>
@@ -2896,10 +2907,10 @@
         <v>40</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="16">
         <v>1</v>
@@ -2917,10 +2928,10 @@
         <v>32</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>32</v>
@@ -2931,13 +2942,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E28" s="16">
         <v>2</v>
@@ -2955,13 +2966,13 @@
         <v>30</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2969,13 +2980,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E29" s="16">
         <v>2</v>
@@ -2993,13 +3004,13 @@
         <v>30</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -3007,13 +3018,13 @@
         <v>52</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="16">
         <v>1</v>
@@ -3031,10 +3042,10 @@
         <v>32</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>32</v>
@@ -3045,13 +3056,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="16">
         <v>1</v>
@@ -3072,7 +3083,7 @@
         <v>32</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>32</v>
@@ -3083,13 +3094,13 @@
         <v>53</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="16">
         <v>1</v>
@@ -3110,7 +3121,7 @@
         <v>53</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L32" s="15" t="s">
         <v>32</v>
@@ -3121,13 +3132,13 @@
         <v>26</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33" s="16">
         <v>1</v>
@@ -3148,7 +3159,7 @@
         <v>32</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L33" s="15" t="s">
         <v>32</v>
@@ -3159,13 +3170,13 @@
         <v>27</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E34" s="16">
         <v>0</v>
@@ -3186,7 +3197,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>32</v>
@@ -3197,13 +3208,13 @@
         <v>28</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="16">
         <v>0</v>
@@ -3224,7 +3235,7 @@
         <v>32</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>32</v>
@@ -3235,13 +3246,13 @@
         <v>29</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="16">
         <v>1</v>
@@ -3262,7 +3273,7 @@
         <v>32</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>32</v>
@@ -3273,13 +3284,13 @@
         <v>54</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="16">
         <v>1</v>
@@ -3297,10 +3308,10 @@
         <v>32</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>32</v>
@@ -3318,7 +3329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F962FC-0D61-6A43-9DF4-D3D675B922A0}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3330,7 +3343,7 @@
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="85.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="51.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3342,10 +3355,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>33</v>
@@ -3363,27 +3376,27 @@
         <v>1</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
@@ -3401,27 +3414,27 @@
         <v>32</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -3439,27 +3452,27 @@
         <v>32</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
@@ -3477,10 +3490,10 @@
         <v>32</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>32</v>
@@ -3488,16 +3501,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
@@ -3515,10 +3528,10 @@
         <v>32</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>32</v>
@@ -3526,16 +3539,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
@@ -3553,10 +3566,10 @@
         <v>32</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>32</v>
@@ -3564,16 +3577,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
@@ -3591,48 +3604,48 @@
         <v>32</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>104</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16">
-        <v>366</v>
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="G8" s="20">
+        <v>-40</v>
+      </c>
+      <c r="H8" s="20">
+        <v>60</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>32</v>
@@ -3640,37 +3653,37 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>105</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="G9" s="20">
+        <v>-40</v>
+      </c>
+      <c r="H9" s="20">
+        <v>140</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>32</v>
@@ -3678,75 +3691,75 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="G10" s="20">
+        <v>-12</v>
+      </c>
+      <c r="H10" s="20">
+        <v>24</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>32</v>
+        <v>187</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>156</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G11" s="20">
-        <v>-40</v>
-      </c>
-      <c r="H11" s="20">
-        <v>60</v>
+        <v>-999</v>
+      </c>
+      <c r="G11" s="21">
+        <v>-0.47244000000000003</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0.94488000000000005</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>32</v>
@@ -3754,16 +3767,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="8">
         <v>1</v>
@@ -3772,112 +3785,112 @@
         <v>-9999</v>
       </c>
       <c r="G12" s="20">
-        <v>-40</v>
+        <v>-12</v>
       </c>
       <c r="H12" s="20">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>32</v>
+        <v>187</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>200</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G13" s="20">
-        <v>-12</v>
-      </c>
-      <c r="H13" s="20">
-        <v>24</v>
+        <v>-999</v>
+      </c>
+      <c r="G13" s="21">
+        <v>-0.47244000000000003</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0.94488000000000005</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>71</v>
+      <c r="J13" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>193</v>
+        <v>187</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>159</v>
+        <v>107</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="8">
-        <v>-999</v>
-      </c>
-      <c r="G14" s="21">
-        <v>-0.47244000000000003</v>
-      </c>
-      <c r="H14" s="21">
-        <v>0.94488000000000005</v>
+        <v>-9999</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>6500</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>160</v>
+        <v>107</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
@@ -3886,74 +3899,74 @@
         <v>-9999</v>
       </c>
       <c r="G15" s="20">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="H15" s="20">
-        <v>24</v>
+        <v>6500</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>161</v>
+        <v>107</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="8">
-        <v>-999</v>
-      </c>
-      <c r="G16" s="21">
-        <v>-0.47244000000000003</v>
-      </c>
-      <c r="H16" s="21">
-        <v>0.94488000000000005</v>
+        <v>-9999</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20">
+        <v>6500</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="8">
         <v>1</v>
@@ -3965,33 +3978,33 @@
         <v>0</v>
       </c>
       <c r="H17" s="20">
-        <v>6500</v>
+        <v>11700</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
@@ -4003,33 +4016,33 @@
         <v>0</v>
       </c>
       <c r="H18" s="20">
-        <v>6500</v>
+        <v>11700</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
@@ -4041,33 +4054,33 @@
         <v>0</v>
       </c>
       <c r="H19" s="20">
-        <v>6500</v>
+        <v>11700</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="8">
         <v>1</v>
@@ -4079,33 +4092,33 @@
         <v>0</v>
       </c>
       <c r="H20" s="20">
-        <v>11700</v>
+        <v>6500</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
@@ -4123,10 +4136,10 @@
         <v>32</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>32</v>
@@ -4134,16 +4147,16 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>231</v>
+        <v>116</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
@@ -4155,33 +4168,33 @@
         <v>0</v>
       </c>
       <c r="H22" s="20">
-        <v>11700</v>
+        <v>40</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>109</v>
+      <c r="J22" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>224</v>
+        <v>117</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="8">
         <v>1</v>
@@ -4190,57 +4203,57 @@
         <v>-9999</v>
       </c>
       <c r="G23" s="20">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H23" s="20">
-        <v>6500</v>
+        <v>104</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>232</v>
+        <v>200</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G24" s="20">
-        <v>0</v>
-      </c>
-      <c r="H24" s="20">
-        <v>11700</v>
+        <v>-999</v>
+      </c>
+      <c r="G24" s="21">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21">
+        <v>8</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>32</v>
@@ -4248,54 +4261,54 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>162</v>
+        <v>48</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>220</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G25" s="20">
-        <v>0</v>
-      </c>
-      <c r="H25" s="20">
-        <v>40</v>
+        <v>-999</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21">
+        <v>1290.06</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="6" t="s">
         <v>77</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>194</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>163</v>
+      <c r="C26" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="8">
         <v>1</v>
@@ -4304,57 +4317,57 @@
         <v>-9999</v>
       </c>
       <c r="G26" s="20">
-        <v>32</v>
+        <v>-40</v>
       </c>
       <c r="H26" s="20">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>42</v>
+      <c r="J26" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>196</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>153</v>
+        <v>129</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>170</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E27" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="8">
-        <v>-999</v>
-      </c>
-      <c r="G27" s="21">
-        <v>11</v>
-      </c>
-      <c r="H27" s="21">
-        <v>15</v>
+        <v>-9999</v>
+      </c>
+      <c r="G27" s="20">
+        <v>-40</v>
+      </c>
+      <c r="H27" s="20">
+        <v>140</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>32</v>
@@ -4362,37 +4375,37 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>155</v>
+        <v>131</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E28" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="8">
-        <v>-999</v>
-      </c>
-      <c r="G28" s="21">
-        <v>11</v>
-      </c>
-      <c r="H28" s="21">
-        <v>15</v>
+        <v>-9999</v>
+      </c>
+      <c r="G28" s="20">
+        <v>-40</v>
+      </c>
+      <c r="H28" s="20">
+        <v>140</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>32</v>
@@ -4400,37 +4413,37 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>154</v>
+        <v>133</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E29" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="8">
-        <v>-999</v>
-      </c>
-      <c r="G29" s="21">
-        <v>11</v>
-      </c>
-      <c r="H29" s="21">
-        <v>15</v>
+        <v>-9999</v>
+      </c>
+      <c r="G29" s="20">
+        <v>-31</v>
+      </c>
+      <c r="H29" s="20">
+        <v>122</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>32</v>
@@ -4438,37 +4451,37 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="G30" s="20">
+        <v>-31</v>
+      </c>
+      <c r="H30" s="20">
         <v>122</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
-        <v>1</v>
-      </c>
       <c r="I30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>32</v>
@@ -4476,37 +4489,37 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>14</v>
+        <v>137</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>230</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="G31" s="20">
+        <v>-31</v>
+      </c>
+      <c r="H31" s="20">
+        <v>122</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>32</v>
@@ -4514,37 +4527,37 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>60</v>
+        <v>139</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="G32" s="20">
+        <v>-31</v>
+      </c>
+      <c r="H32" s="20">
+        <v>122</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>32</v>
@@ -4552,37 +4565,37 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>15</v>
+        <v>141</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="16">
-        <v>0</v>
-      </c>
-      <c r="H33" s="16">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F33" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="G33" s="20">
+        <v>-31</v>
+      </c>
+      <c r="H33" s="20">
+        <v>122</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>32</v>
@@ -4590,37 +4603,37 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>201</v>
+        <v>143</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="8">
-        <v>-999</v>
-      </c>
-      <c r="G34" s="21">
-        <v>0</v>
-      </c>
-      <c r="H34" s="21">
-        <v>8</v>
+        <v>-9999</v>
+      </c>
+      <c r="G34" s="20">
+        <v>-31</v>
+      </c>
+      <c r="H34" s="20">
+        <v>122</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>168</v>
+      <c r="J34" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>32</v>
@@ -4628,189 +4641,189 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>200</v>
+        <v>144</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G35" s="20">
-        <v>0</v>
-      </c>
-      <c r="H35" s="20">
-        <v>200</v>
+        <v>-999</v>
+      </c>
+      <c r="G35" s="21">
+        <v>0</v>
+      </c>
+      <c r="H35" s="21">
+        <v>7</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>32</v>
+      <c r="J35" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>245</v>
+        <v>145</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E36" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="8">
-        <v>-99999</v>
-      </c>
-      <c r="G36" s="16">
-        <v>0</v>
-      </c>
-      <c r="H36" s="16">
-        <v>100</v>
+        <v>-999</v>
+      </c>
+      <c r="G36" s="21">
+        <v>0</v>
+      </c>
+      <c r="H36" s="21">
+        <v>7</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>32</v>
+      <c r="J36" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>49</v>
+        <v>146</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E37" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" s="8">
-        <v>-99999</v>
-      </c>
-      <c r="G37" s="16">
-        <v>0</v>
-      </c>
-      <c r="H37" s="16">
-        <v>100</v>
+        <v>-999</v>
+      </c>
+      <c r="G37" s="21">
+        <v>0</v>
+      </c>
+      <c r="H37" s="21">
+        <v>7</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>32</v>
+      <c r="J37" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>247</v>
+        <v>147</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="8">
-        <v>-99999</v>
-      </c>
-      <c r="G38" s="16">
-        <v>0</v>
-      </c>
-      <c r="H38" s="16">
-        <v>100</v>
+        <v>-999</v>
+      </c>
+      <c r="G38" s="21">
+        <v>0</v>
+      </c>
+      <c r="H38" s="21">
+        <v>7</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>32</v>
+      <c r="J38" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="8">
-        <v>-999</v>
-      </c>
-      <c r="G39" s="21">
-        <v>0</v>
-      </c>
-      <c r="H39" s="21">
-        <v>54</v>
+        <v>-9999</v>
+      </c>
+      <c r="G39" s="20">
+        <v>0</v>
+      </c>
+      <c r="H39" s="20">
+        <v>124</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>32</v>
@@ -4818,37 +4831,37 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E40" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="8">
-        <v>-999</v>
-      </c>
-      <c r="G40" s="21">
-        <v>0</v>
-      </c>
-      <c r="H40" s="21">
-        <v>1290.06</v>
+        <v>-9999</v>
+      </c>
+      <c r="G40" s="20">
+        <v>0</v>
+      </c>
+      <c r="H40" s="20">
+        <v>112</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="6" t="s">
-        <v>78</v>
+      <c r="J40" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>32</v>
@@ -4856,16 +4869,16 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E41" s="8">
         <v>1</v>
@@ -4874,19 +4887,19 @@
         <v>-9999</v>
       </c>
       <c r="G41" s="20">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="H41" s="20">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>32</v>
@@ -4894,13 +4907,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>40</v>
+        <v>167</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>67</v>
@@ -4912,19 +4925,19 @@
         <v>-9999</v>
       </c>
       <c r="G42" s="20">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="H42" s="20">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>127</v>
+        <v>30</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>32</v>
@@ -4932,28 +4945,28 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>170</v>
+        <v>123</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E43" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G43" s="20">
-        <v>-40</v>
-      </c>
-      <c r="H43" s="20">
-        <v>60</v>
+        <v>-99999</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0</v>
+      </c>
+      <c r="H43" s="16">
+        <v>100</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>30</v>
@@ -4962,7 +4975,7 @@
         <v>32</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>32</v>
@@ -4970,37 +4983,37 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>40</v>
+        <v>124</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E44" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G44" s="20">
-        <v>-40</v>
-      </c>
-      <c r="H44" s="20">
-        <v>140</v>
+        <v>-99999</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="H44" s="16">
+        <v>100</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="15" t="s">
-        <v>129</v>
+        <v>30</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>32</v>
@@ -5008,28 +5021,28 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>174</v>
+        <v>125</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E45" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G45" s="20">
-        <v>-40</v>
-      </c>
-      <c r="H45" s="20">
-        <v>60</v>
+        <v>-99999</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0</v>
+      </c>
+      <c r="H45" s="16">
+        <v>100</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>30</v>
@@ -5038,7 +5051,7 @@
         <v>32</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>32</v>
@@ -5046,37 +5059,37 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>40</v>
+        <v>77</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E46" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G46" s="20">
-        <v>-40</v>
-      </c>
-      <c r="H46" s="20">
-        <v>140</v>
+        <v>-999</v>
+      </c>
+      <c r="G46" s="21">
+        <v>0</v>
+      </c>
+      <c r="H46" s="21">
+        <v>54</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>131</v>
+        <v>30</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>32</v>
@@ -5084,16 +5097,16 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E47" s="8">
         <v>1</v>
@@ -5102,10 +5115,10 @@
         <v>-9999</v>
       </c>
       <c r="G47" s="20">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="H47" s="20">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>30</v>
@@ -5114,7 +5127,7 @@
         <v>32</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>32</v>
@@ -5122,13 +5135,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>67</v>
@@ -5140,19 +5153,19 @@
         <v>-9999</v>
       </c>
       <c r="G48" s="20">
-        <v>-31</v>
+        <v>-40</v>
       </c>
       <c r="H48" s="20">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>133</v>
+        <v>30</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>32</v>
@@ -5160,16 +5173,16 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E49" s="8">
         <v>1</v>
@@ -5178,10 +5191,10 @@
         <v>-9999</v>
       </c>
       <c r="G49" s="20">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="H49" s="20">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>30</v>
@@ -5190,7 +5203,7 @@
         <v>32</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>32</v>
@@ -5198,13 +5211,13 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>67</v>
@@ -5216,19 +5229,19 @@
         <v>-9999</v>
       </c>
       <c r="G50" s="20">
-        <v>-31</v>
+        <v>-35</v>
       </c>
       <c r="H50" s="20">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>135</v>
+        <v>30</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>32</v>
@@ -5236,16 +5249,16 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E51" s="8">
         <v>1</v>
@@ -5266,7 +5279,7 @@
         <v>32</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>32</v>
@@ -5274,13 +5287,13 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>67</v>
@@ -5292,19 +5305,19 @@
         <v>-9999</v>
       </c>
       <c r="G52" s="20">
-        <v>-31</v>
+        <v>-35</v>
       </c>
       <c r="H52" s="20">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="15" t="s">
-        <v>137</v>
+        <v>30</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L52" s="6" t="s">
         <v>32</v>
@@ -5312,16 +5325,16 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E53" s="8">
         <v>1</v>
@@ -5342,7 +5355,7 @@
         <v>32</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>32</v>
@@ -5353,10 +5366,10 @@
         <v>140</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>67</v>
@@ -5368,19 +5381,19 @@
         <v>-9999</v>
       </c>
       <c r="G54" s="20">
-        <v>-31</v>
+        <v>-35</v>
       </c>
       <c r="H54" s="20">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" s="15" t="s">
-        <v>139</v>
+        <v>30</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>32</v>
@@ -5388,16 +5401,16 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E55" s="8">
         <v>1</v>
@@ -5418,7 +5431,7 @@
         <v>32</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L55" s="6" t="s">
         <v>32</v>
@@ -5426,13 +5439,13 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>67</v>
@@ -5444,19 +5457,19 @@
         <v>-9999</v>
       </c>
       <c r="G56" s="20">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="H56" s="20">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>141</v>
+        <v>30</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>32</v>
@@ -5464,16 +5477,16 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>38</v>
+        <v>149</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E57" s="8">
         <v>1</v>
@@ -5482,7 +5495,7 @@
         <v>-9999</v>
       </c>
       <c r="G57" s="20">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="H57" s="20">
         <v>50</v>
@@ -5494,7 +5507,7 @@
         <v>32</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L57" s="6" t="s">
         <v>32</v>
@@ -5502,37 +5515,37 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>40</v>
+        <v>150</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E58" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G58" s="20">
-        <v>-31</v>
-      </c>
-      <c r="H58" s="20">
-        <v>122</v>
+        <v>-99999</v>
+      </c>
+      <c r="G58" s="16">
+        <v>0</v>
+      </c>
+      <c r="H58" s="16">
+        <v>360</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J58" s="15" t="s">
-        <v>143</v>
+        <v>30</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>32</v>
@@ -5540,28 +5553,28 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>205</v>
+        <v>151</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E59" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59" s="8">
-        <v>-999</v>
-      </c>
-      <c r="G59" s="21">
-        <v>0</v>
-      </c>
-      <c r="H59" s="21">
-        <v>7</v>
+        <v>-99999</v>
+      </c>
+      <c r="G59" s="16">
+        <v>0</v>
+      </c>
+      <c r="H59" s="16">
+        <v>180</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>30</v>
@@ -5570,7 +5583,7 @@
         <v>32</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L59" s="6" t="s">
         <v>32</v>
@@ -5578,28 +5591,28 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>205</v>
+        <v>57</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E60" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="8">
-        <v>-999</v>
-      </c>
-      <c r="G60" s="21">
-        <v>0</v>
-      </c>
-      <c r="H60" s="21">
-        <v>7</v>
+        <v>-9999</v>
+      </c>
+      <c r="G60" s="20">
+        <v>0</v>
+      </c>
+      <c r="H60" s="20">
+        <v>50</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>30</v>
@@ -5608,7 +5621,7 @@
         <v>32</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L60" s="6" t="s">
         <v>32</v>
@@ -5616,37 +5629,37 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>177</v>
+        <v>101</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E61" s="8">
-        <v>2</v>
-      </c>
-      <c r="F61" s="8">
-        <v>-999</v>
-      </c>
-      <c r="G61" s="21">
-        <v>0</v>
-      </c>
-      <c r="H61" s="21">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="16">
+        <v>1</v>
+      </c>
+      <c r="H61" s="16">
+        <v>366</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J61" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L61" s="6" t="s">
         <v>32</v>
@@ -5654,37 +5667,37 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>178</v>
+        <v>102</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E62" s="8">
-        <v>2</v>
-      </c>
-      <c r="F62" s="8">
-        <v>-999</v>
-      </c>
-      <c r="G62" s="21">
-        <v>0</v>
-      </c>
-      <c r="H62" s="21">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J62" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L62" s="6" t="s">
         <v>32</v>
@@ -5692,37 +5705,37 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>179</v>
+        <v>32</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="8">
-        <v>1</v>
-      </c>
-      <c r="F63" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G63" s="20">
-        <v>0</v>
-      </c>
-      <c r="H63" s="20">
-        <v>124</v>
+        <v>32</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J63" s="15" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>32</v>
@@ -5730,37 +5743,37 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>180</v>
+        <v>201</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E64" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G64" s="20">
-        <v>0</v>
-      </c>
-      <c r="H64" s="20">
-        <v>60</v>
+        <v>-999</v>
+      </c>
+      <c r="G64" s="21">
+        <v>11</v>
+      </c>
+      <c r="H64" s="21">
+        <v>15</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L64" s="6" t="s">
         <v>32</v>
@@ -5768,37 +5781,37 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>181</v>
+        <v>201</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E65" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G65" s="20">
-        <v>0</v>
-      </c>
-      <c r="H65" s="20">
-        <v>112</v>
+        <v>-999</v>
+      </c>
+      <c r="G65" s="21">
+        <v>11</v>
+      </c>
+      <c r="H65" s="21">
+        <v>15</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" s="15" t="s">
-        <v>150</v>
+        <v>16</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L65" s="6" t="s">
         <v>32</v>
@@ -5806,37 +5819,37 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>182</v>
+        <v>201</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E66" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G66" s="20">
-        <v>0</v>
-      </c>
-      <c r="H66" s="20">
-        <v>50</v>
+        <v>-999</v>
+      </c>
+      <c r="G66" s="21">
+        <v>11</v>
+      </c>
+      <c r="H66" s="21">
+        <v>15</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L66" s="6" t="s">
         <v>32</v>
@@ -5844,37 +5857,37 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>183</v>
+        <v>32</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E67" s="8">
         <v>0</v>
       </c>
-      <c r="F67" s="8">
-        <v>-99999</v>
+      <c r="F67" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="G67" s="16">
         <v>0</v>
       </c>
       <c r="H67" s="16">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L67" s="6" t="s">
         <v>32</v>
@@ -5882,37 +5895,37 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>184</v>
+        <v>32</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="8">
-        <v>0</v>
-      </c>
-      <c r="F68" s="8">
-        <v>-99999</v>
-      </c>
-      <c r="G68" s="16">
-        <v>0</v>
-      </c>
-      <c r="H68" s="16">
-        <v>180</v>
+        <v>32</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L68" s="6" t="s">
         <v>32</v>
@@ -5920,37 +5933,37 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>186</v>
+        <v>32</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E69" s="8">
-        <v>1</v>
-      </c>
-      <c r="F69" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G69" s="20">
-        <v>0</v>
-      </c>
-      <c r="H69" s="20">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J69" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L69" s="6" t="s">
         <v>32</v>
@@ -5958,37 +5971,37 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>187</v>
+        <v>32</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E70" s="8">
-        <v>1</v>
-      </c>
-      <c r="F70" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="G70" s="20">
-        <v>0</v>
-      </c>
-      <c r="H70" s="20">
-        <v>112</v>
+        <v>0</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="16">
+        <v>0</v>
+      </c>
+      <c r="H70" s="16">
+        <v>1</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J70" s="15" t="s">
-        <v>191</v>
+        <v>16</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L70" s="6" t="s">
         <v>32</v>
